--- a/biology/Médecine/Antiépileptique/Antiépileptique.xlsx
+++ b/biology/Médecine/Antiépileptique/Antiépileptique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anti%C3%A9pileptique</t>
+          <t>Antiépileptique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les antiépileptiques Écouter, anticonvulsifs, anticonvulsivants ou anticomitiaux, appartiennent à un groupe varié de médicaments utilisés dans la prévention ou l'occurrence de l'épilepsie.
 Leur action est symptomatique et non pas curative (ils sont capables de diminuer la sévérité des crises, la fréquence de celles-ci, voire de les supprimer complètement (pour 60 % des patients approximativement), mais l'arrêt du traitement signe leur reprise).
@@ -504,7 +516,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anti%C3%A9pileptique</t>
+          <t>Antiépileptique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -524,8 +536,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Canaux sodiques
-Les canaux sodiques sont présents dans l’ensemble de notre système nerveux central. Lorsque ces canaux sont activés, l’ouverture des canaux engendre une entrée massive d’ions sodium dans la cellule nerveuse, la cellule dépolarisée peut alors propager l’influx nerveux le long de la membrane cellulaire. 
+          <t>Canaux sodiques</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les canaux sodiques sont présents dans l’ensemble de notre système nerveux central. Lorsque ces canaux sont activés, l’ouverture des canaux engendre une entrée massive d’ions sodium dans la cellule nerveuse, la cellule dépolarisée peut alors propager l’influx nerveux le long de la membrane cellulaire. 
 Après l’ouverture des canaux, ces derniers seront dans état dit « inactivé », qui est l’état situé entre les conformations ouverte et fermée. Lorsqu’ils sont inactivés, les canaux ne peuvent pas se rouvrir immédiatement. Après l’état inactivé, les canaux seront dans l’état fermé, où ils sont imperméables aux ions mais peuvent être activé immédiatement.
 Certains antiépileptiques vont se lier préférentiellement aux canaux sodiques lorsque ces derniers sont dans un état inactivé, en se liant ils vont ralentir le passage à un état où les canaux seraient susceptibles d’être de nouveau activé, évitant ainsi les décharges se répétant dans le temps. 
 C’est le mécanisme de plusieurs traitements antiépileptiques : la phénytoïne, la carbamazépine, la lamotrigine, l’oxcarbazépine, le felbamate ou encore la valproate de sodium.
@@ -537,8 +554,43 @@
 cutanés ;
 hypertrophie gingivale.
 De même que les interactions médicamenteuses. La phénytoïne est contre-indiquée en cas d'antécédents de porphyries.
-Canaux calciques
-Les canaux calciques potentiel-dépendants peuvent être divisés en deux catégories : les canaux de bas seuil d’activation et ceux de haut seuil d’activation, en fonction du niveau de potentiel membranaire nécessaire à leur activation. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Antiépileptique</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anti%C3%A9pileptique</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Modulation des canaux ioniques  </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Canaux calciques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les canaux calciques potentiel-dépendants peuvent être divisés en deux catégories : les canaux de bas seuil d’activation et ceux de haut seuil d’activation, en fonction du niveau de potentiel membranaire nécessaire à leur activation. 
 Les canaux de bas seuil d’activation sont les canaux de type T s’exprimant au niveau des neurones relais cortico-thalamiques, ils génèrent une onde rythmique de 3 Hz qui est caractéristiques des absences.
 Les canaux de haut seuil d’activation sont les canaux de type L, N, P, Q et R. Ils ont des propriétés pharmacologiques différentes. Ces canaux présents dans le système nerveux central se retrouvent au niveau des dendrites, des corps cellulaires et des terminaisons nerveuses. Les types N, P et Q participent au contrôle de la libération des neurotransmetteurs dans la fente synaptique.
 Ces canaux calciques seraient responsables des absences encore appelées petit mal, durant l’enfance.
@@ -549,31 +601,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Anti%C3%A9pileptique</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Antiépileptique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Anti%C3%A9pileptique</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Augmentation de l'inhibition médiée par le GABA</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le GABA, principal neurotransmetteur inhibiteur chez les mammifères, est libéré dans plus de 40 % des synapses. Son inhibition est connue pour entrainer des convulsions, tandis que sa facilitation provoque un effet anti-convulsivant. Le GABA est synthétisé dans les neurones GABAergiques à partir du glutamate, grâce à l’action de l’acide glutamique décarboxylase(AGD). Une fois dans la fente synaptique, le GABA agit sur trois récepteurs spécifiques : GABAA, GABAB et GABAC. Ces récepteurs ont des fonctions distinctes.
 Le récepteur GABAA est couplé aux canaux chlorure, lorsque le GABA vient se fixer sur ce récepteur, les canaux chlorure s’ouvrent entrainant une hyperpolarisation rapide de la membrane. L’hyperpolarisation de la membrane rend plus difficile le passage d’une vague de potentiel d’action, c’est l’effet inhibiteur. 
@@ -591,31 +645,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Anti%C3%A9pileptique</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Antiépileptique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Anti%C3%A9pileptique</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Diminution de l'action du neurotransmetteur excitateur : le glutamate</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le glutamate est le neurotransmetteur excitateur principal du système nerveux central. Il est synthétisé dans les neurones glutamatergiques à partir de la glutamine. L’enzyme catabolisant cette réaction est la glutaminase.
 Après avoir été libéré dans la synapse, le glutamate va agir sur deux types de récepteurs différents : les récepteurs ionotropiques et les récepteurs métabotropiques. Les premiers sont des récepteurs associés à un canal ionique membranaire tandis que les seconds mettent en jeu directement une voie de signalisation.
@@ -632,31 +688,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Anti%C3%A9pileptique</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Antiépileptique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Anti%C3%A9pileptique</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Molécules à modes d'action multiples</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe plusieurs formes d’épilepsies, les crises peuvent être partielles ou généralisées. Les crises partielles peuvent être simples ou bien complexes. Le choix du traitement dépendra donc du type d’épilepsie rencontré par le patient. Certains antiépileptiques sont contre-indiqués dans certaines formes d’épilepsie, ils peuvent même les aggraver. Par exemple, si le patient souffre d’absences qui sont de brefs épisodes d’altération de la conscience, on choisira pour traiter ces absences de l’acide valproïque en premier intention et non pas de la carbamazépine. En effet, la carbamazépine est efficace pour traiter les crises généralisées de type Grand Mal ou encore les crises partielles, mais est inefficace pour traiter les crises généralisées de type « absences ». 
 Comme vu précédemment, certains antiépileptiques peuvent avoir des mécanismes d’action sur plusieurs sites pharmacologiques, ce sont donc des molécules à modes d’action multiples. Nous pouvons reprendre l’exemple du topiramate, modulant l’activité des canaux sodiques, calciques, antagonistes sur les récepteurs AMPA/Kaïnate et enfin ayant des effets activateurs sur les récepteurs GABAA. 
@@ -666,40 +724,42 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Anti%C3%A9pileptique</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Antiépileptique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Anti%C3%A9pileptique</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Effets tératogènes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs antiépileptiques sont mis en cause pour leur effet tératogène — à savoir le risque de malformation du fœtus — quand ils sont administrés à des femmes enceintes. Des troubles neurodéveloppementaux sont aussi rapportés.
-Les molécules incriminées sont[1] :
+Les molécules incriminées sont :
 acide valproïque, augmentation du risque de malformation d'un facteur 4 à 5 ; troubles neurodéveloppementaux avérés ;
 topiramate, augmentation du risque de malformation d'un facteur 3 (becs-de-lièvre, hypospadias) ;
 phénobarbital, primidone, augmentation du risque de malformation d'un facteur 3 ;
 phénytoïne, fosphénitoïne, augmentation du risque de malformation d'un facteur 2 à 3 ;
 carbamazépine, jusqu'à 3 fois plus de risque de malformation.
-En cas de grossesse, « la patiente ne doit pas arrêter ni modifier son traitement sans l'avis d'un médecin » ; elle doit consulter un spécialiste dans les plus brefs délais[1].
+En cas de grossesse, « la patiente ne doit pas arrêter ni modifier son traitement sans l'avis d'un médecin » ; elle doit consulter un spécialiste dans les plus brefs délais.
 </t>
         </is>
       </c>
